--- a/圣鹏智慧物流平台项目需求文档/仓配一体化系统业务流程.xlsx
+++ b/圣鹏智慧物流平台项目需求文档/仓配一体化系统业务流程.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\圣鹏报表\svn文件\圣鹏智慧物流平台项目文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitsource\wms_doc\圣鹏智慧物流平台项目需求文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="300" windowWidth="15570" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="300" windowWidth="15570" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="整体流程" sheetId="1" r:id="rId1"/>
@@ -442,763 +442,763 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>出库指令列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单（关联出库指令）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单（关联入库指令）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物托运单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物托运单（新增）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方运单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方运单（原有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">运单列表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物托运订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度派车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度派车列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度派车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托运开单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库指令-提货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库指令-送货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派车单-打印模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度派车-打印派车单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装车清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度派车-打印装车清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配载发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆跟踪（车辆动态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆在途跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单在途跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单返厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常件登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常件处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆在途跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途运单跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单返厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常单登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常单处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来对账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">承运商对账 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运商结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户对账单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运商对账单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车报账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车报账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出车登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机出车前向财务借款、领用油卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机回来后向财务报账：收入、费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储费用管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储合同计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储租赁费用管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库收入录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库收入录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库成本录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库成本录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储作业计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储作业费用登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次仓储出入库的装卸费、出库费等都可以进行登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储作业计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据内容需修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">往来对账 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户对账单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运商对账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运商对账单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机对账单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运商结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借还款登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油卡充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">路卡充值 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常收支管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳明细账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单票毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整车毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户收入排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机产值排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出车登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装车发运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务处理中心-出车登记（打印三联）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMS(Order Management System,OMS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">京东 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业ERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电商企业/生产企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检验 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上架 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拣货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能补货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装车发运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">运单跟踪 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回单签收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车报账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自有运输车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">物流公司 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（Customer Service Center，CSC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户服务中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           实时库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial Management Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运商对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">客户结算 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运商结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常费用管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big data center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户发货量统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户订单分布地图分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户产值排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户商品出入库频次分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商产品合格率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频监控系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS/北斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯控系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户销售订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户采购订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单执行情况统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（根据订单商品和送货地址就近选择发货仓库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>选择是否需要运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库指令列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单（关联出库指令）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单（关联入库指令）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物托运单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物托运单（新增）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三方运单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三方运单（原有）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">运单列表 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物托运订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度派车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度派车列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度派车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托运开单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库指令-提货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库指令-送货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派车单-打印模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度派车-打印派车单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装车清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度派车-打印装车清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配载发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在途跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆跟踪（车辆动态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆在途跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单在途跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单返厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常件登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常件处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在途跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆在途跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在途运单跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单返厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常单登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常单处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往来对账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户对账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">承运商对账 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运商结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户对账单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运商对账单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回车报账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回车报账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出车登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机出车前向财务借款、领用油卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机回来后向财务报账：收入、费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储费用管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机报销单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机报销单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储合同计费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储租赁费用管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库收入录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库收入录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库成本录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库成本录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储作业计费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储作业费用登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次仓储出入库的装卸费、出库费等都可以进行登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储作业计费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据内容需修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">往来对账 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户对账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户对账单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运商对账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运商对账单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机对账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机对账单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往来结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运商结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借还款登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油卡充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">路卡充值 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违章登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户余额查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常收支管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出纳明细账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单票毛利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整车毛利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户收入排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机产值排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出车登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装车发运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务处理中心-出车登记（打印三联）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OMS(Order Management System,OMS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">京东 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚马逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业ERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电商企业/生产企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">检验 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上架 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拣货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能补货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆调度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装车发运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">运单跟踪 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回单签收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回车报账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自有运输车队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">物流公司 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（Customer Service Center，CSC）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户服务中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">           实时库存查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Financial Management Systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户对账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运商对账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机对账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">客户结算 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运商结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常费用管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big data center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户发货量统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户订单分布地图分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户产值排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户商品出入库频次分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商产品合格率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频监控系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS/北斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯控系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户销售订单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户采购订单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单执行情况统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（根据订单商品和送货地址就近选择发货仓库）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1932,11 +1932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
@@ -1949,7 +1949,7 @@
     <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>37</v>
       </c>
@@ -1960,12 +1960,12 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1989,50 +1989,50 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="B4" s="4"/>
       <c r="C4" s="20"/>
       <c r="D4" s="11" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="48" customHeight="1">
       <c r="B5" s="4"/>
       <c r="C5" s="20"/>
       <c r="D5" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="37.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="33" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="33" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>86</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>83</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>88</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="36" t="s">
         <v>84</v>
@@ -2085,7 +2085,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="27" customHeight="1">
       <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
     </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="27" customHeight="1">
       <c r="B14" s="36" t="s">
         <v>12</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
     </row>
-    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="27" customHeight="1">
       <c r="B15" s="36" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="27" customHeight="1">
       <c r="B16" s="36" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="27" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="27" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="B22" s="10" t="s">
         <v>46</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="27" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>47</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="27" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>48</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="27" customHeight="1">
       <c r="B25" s="10" t="s">
         <v>78</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>49</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
@@ -2304,12 +2304,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1">
       <c r="B28" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="29.25" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
@@ -2338,13 +2338,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:9" ht="29.25" customHeight="1"/>
+    <row r="31" spans="1:9" ht="29.25" customHeight="1"/>
+    <row r="32" spans="1:9" ht="29.25" customHeight="1"/>
+    <row r="33" ht="29.25" customHeight="1"/>
+    <row r="34" ht="29.25" customHeight="1"/>
+    <row r="35" ht="29.25" customHeight="1"/>
+    <row r="36" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B15:E15"/>
@@ -2366,11 +2366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
@@ -2381,252 +2381,252 @@
     <col min="8" max="16" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
       <c r="A1" s="23"/>
       <c r="B1" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="B4" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="D6" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1">
+      <c r="B8" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="B9" s="24"/>
       <c r="D9" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1">
+      <c r="C10" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1">
+      <c r="C11" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="24" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1">
+      <c r="E12" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="24" t="s">
+    <row r="13" spans="1:7" ht="21" customHeight="1">
+      <c r="E13" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="21" customHeight="1"/>
+    <row r="15" spans="1:7" ht="21" customHeight="1"/>
+    <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="D16" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="21" customHeight="1">
+      <c r="D17" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="34" t="s">
+    </row>
+    <row r="18" spans="4:4" ht="21" customHeight="1">
+      <c r="D18" s="33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="4:4" ht="21" customHeight="1"/>
+    <row r="20" spans="4:4" ht="21" customHeight="1"/>
+    <row r="21" spans="4:4" ht="21" customHeight="1"/>
+    <row r="22" spans="4:4" ht="21" customHeight="1"/>
+    <row r="23" spans="4:4" ht="21" customHeight="1"/>
+    <row r="24" spans="4:4" ht="21" customHeight="1"/>
+    <row r="25" spans="4:4" ht="21" customHeight="1"/>
+    <row r="26" spans="4:4" ht="21" customHeight="1"/>
+    <row r="27" spans="4:4" ht="21" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2642,7 +2642,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="39.25" customWidth="1"/>
@@ -2650,188 +2650,188 @@
     <col min="12" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="35.25" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="22"/>
       <c r="C8" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
       <c r="E13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
         <v>119</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
       <c r="E14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
+      <c r="B15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="B18" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="20.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="20.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="20.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="20.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="20.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="20.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="20.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2846,233 +2846,233 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
     <col min="7" max="18" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>157</v>
-      </c>
       <c r="F1" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
         <v>170</v>
       </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
         <v>180</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A19" s="17" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="B19" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:2" ht="18.75" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A22" s="17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="B22" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:2" ht="18.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="24" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3091,142 +3091,142 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="16" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="D2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="D5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A11" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1">
+      <c r="B12" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1">
+      <c r="B13" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1">
+      <c r="B14" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1">
+      <c r="B15" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
+    <row r="16" spans="1:4" ht="17.25" customHeight="1">
+      <c r="B16" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="27" customHeight="1"/>
+    <row r="18" ht="27" customHeight="1"/>
+    <row r="19" ht="27" customHeight="1"/>
+    <row r="20" ht="27" customHeight="1"/>
+    <row r="21" ht="27" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3242,67 +3242,67 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="24.75" customHeight="1">
+      <c r="B3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1">
+      <c r="B4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" ht="24.75" customHeight="1">
+      <c r="B5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="8" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="11" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="12" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="13" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="24.75" customHeight="1"/>
+    <row r="17" ht="24.75" customHeight="1"/>
+    <row r="18" ht="24.75" customHeight="1"/>
+    <row r="19" ht="24.75" customHeight="1"/>
+    <row r="20" ht="24.75" customHeight="1"/>
+    <row r="21" ht="24.75" customHeight="1"/>
+    <row r="22" ht="24.75" customHeight="1"/>
+    <row r="23" ht="24.75" customHeight="1"/>
+    <row r="24" ht="24.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
